--- a/htdocs/App/Controllers/Traspasos/6747GLX.xlsx
+++ b/htdocs/App/Controllers/Traspasos/6747GLX.xlsx
@@ -1385,7 +1385,7 @@
       <c r="W16" s="62"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="36">
-        <v>58</v>
+        <v>70.4</v>
       </c>
       <c r="Z16" s="14" t="s">
         <v>13</v>
